--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FFCA52-C490-0E4E-BC89-3A63E8B7C2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EE6FBD-5681-9E45-8C6F-57F991661F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="7300" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -68,66 +68,18 @@
     <t>9:00 pm</t>
   </si>
   <si>
-    <t>8:30pm</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
     <t>Spring Recess</t>
   </si>
   <si>
     <t>Reading Day</t>
   </si>
   <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
     <t>President's Day</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
     <t>NO CLASS - Spring Recess</t>
   </si>
   <si>
-    <t>Week 15</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -198,6 +150,48 @@
   </si>
   <si>
     <t>Chapter 9 - Multiple &amp; Logistic Regression</t>
+  </si>
+  <si>
+    <t>Intro to Data</t>
+  </si>
+  <si>
+    <t>Summarizing Data</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Distributions</t>
+  </si>
+  <si>
+    <t>Foundation for Inference</t>
+  </si>
+  <si>
+    <t>Inference for Categorical Data</t>
+  </si>
+  <si>
+    <t>Inference for Numerical Data</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Linear Regression (cont.)</t>
+  </si>
+  <si>
+    <t>Multiple Regression</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Distributions (cont.)</t>
+  </si>
+  <si>
+    <t>Bayesian Analysis</t>
+  </si>
+  <si>
+    <t>Final Meetup</t>
   </si>
 </sst>
 </file>
@@ -569,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -615,10 +609,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -632,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -649,10 +643,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -666,10 +660,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -683,10 +677,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -700,10 +694,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -717,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -734,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -745,7 +739,7 @@
         <v>44286</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -759,10 +753,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -776,10 +770,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -793,10 +787,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -810,10 +804,10 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -827,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -844,27 +838,10 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>44335</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -875,10 +852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -909,10 +886,10 @@
         <v>44234</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -923,10 +900,10 @@
         <v>44241</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -937,7 +914,7 @@
         <v>44242</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -948,10 +925,10 @@
         <v>44248</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -959,183 +936,133 @@
         <v>44249</v>
       </c>
       <c r="B6" s="2">
-        <v>44255</v>
+        <v>44262</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44256</v>
+        <v>44263</v>
       </c>
       <c r="B7" s="2">
-        <v>44262</v>
+        <v>44269</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44263</v>
+        <v>44270</v>
       </c>
       <c r="B8" s="2">
-        <v>44269</v>
+        <v>44276</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B9" s="2">
-        <v>44276</v>
+        <v>44281</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44277</v>
+        <v>44282</v>
       </c>
       <c r="B10" s="2">
-        <v>44281</v>
+        <v>44290</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44282</v>
+        <v>44291</v>
       </c>
       <c r="B11" s="2">
-        <v>44290</v>
+        <v>44304</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44291</v>
+        <v>44305</v>
       </c>
       <c r="B12" s="2">
-        <v>44297</v>
+        <v>44318</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44298</v>
+        <v>44319</v>
       </c>
       <c r="B13" s="2">
-        <v>44304</v>
+        <v>44333</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44305</v>
+        <v>44334</v>
       </c>
       <c r="B14" s="2">
-        <v>44311</v>
+        <v>44334</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44312</v>
+        <v>44335</v>
       </c>
       <c r="B15" s="2">
-        <v>44318</v>
+        <v>44339</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>44319</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44325</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>44326</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44333</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>44334</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44334</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>44335</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44341</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EE6FBD-5681-9E45-8C6F-57F991661F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA3947-E33B-8E4A-9036-1226B48E3D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Final Meetup</t>
+  </si>
+  <si>
+    <t>1:00 pm</t>
+  </si>
+  <si>
+    <t>Intro to the Course</t>
   </si>
 </sst>
 </file>
@@ -563,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,16 +606,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44230</v>
+        <v>44225</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -617,7 +623,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44237</v>
+        <v>44230</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -626,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -634,7 +640,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44244</v>
+        <v>44237</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -643,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -651,7 +657,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44251</v>
+        <v>44244</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -660,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -668,7 +674,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44258</v>
+        <v>44251</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -677,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -685,7 +691,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44265</v>
+        <v>44258</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -694,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -702,7 +708,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44272</v>
+        <v>44265</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -711,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -719,7 +725,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44279</v>
+        <v>44272</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -728,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -736,41 +742,41 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44286</v>
+        <v>44279</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44293</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>44286</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -778,16 +784,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44307</v>
+        <v>44300</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -795,7 +801,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44314</v>
+        <v>44307</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -804,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -812,7 +818,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44321</v>
+        <v>44314</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -821,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -829,18 +835,35 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>44328</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -854,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA3947-E33B-8E4A-9036-1226B48E3D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD6BC67-862C-C645-8B3F-03BC25157F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Intro to the Course</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/00-Intro_to_Course.html)</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,6 +622,9 @@
       </c>
       <c r="E2" t="s">
         <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD6BC67-862C-C645-8B3F-03BC25157F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D0BA14-CBA0-DB44-9B3A-CDCE938F0105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -200,7 +200,7 @@
     <t>Intro to the Course</t>
   </si>
   <si>
-    <t>[Slides](/slides/00-Intro_to_Course.html)</t>
+    <t>[Video](https://youtu.be/COXMuhVMOrI), [Slides](/slides/00-Intro_to_Course.html)</t>
   </si>
 </sst>
 </file>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D0BA14-CBA0-DB44-9B3A-CDCE938F0105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75301DC1-CDC1-1E43-B5B1-0A8E0994F87A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/COXMuhVMOrI), [Slides](/slides/00-Intro_to_Course.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/Ly6ydcOgSTw), [Slides](/slides/01-Intro_to_Data.html)</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,6 +645,9 @@
       </c>
       <c r="E3" t="s">
         <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75301DC1-CDC1-1E43-B5B1-0A8E0994F87A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA5C2DA-07DC-4342-805D-93AAA5D2FC08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/Ly6ydcOgSTw), [Slides](/slides/01-Intro_to_Data.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/pQp5iAMVqTs), [Slides](/slides/02-Summarizing_Data.html)</t>
   </si>
 </sst>
 </file>
@@ -666,6 +669,9 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA5C2DA-07DC-4342-805D-93AAA5D2FC08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F6D2CB-4E92-9448-8E82-5DDEDA397F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/pQp5iAMVqTs), [Slides](/slides/02-Summarizing_Data.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/WRQvP6Z_Vyc), [Slides](/slides/03-Probability.html)</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,6 +691,9 @@
       </c>
       <c r="E5" t="s">
         <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F6D2CB-4E92-9448-8E82-5DDEDA397F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC341E7-4D65-C44A-96F3-16F0262CB342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/WRQvP6Z_Vyc), [Slides](/slides/03-Probability.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/eoKKIrw5U8E), [Slides](/slides/04a-Distributions.html)</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,6 +714,9 @@
       </c>
       <c r="E6" t="s">
         <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC341E7-4D65-C44A-96F3-16F0262CB342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE66AA1-D4D6-734B-AAEB-3A91FBC6CC0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/eoKKIrw5U8E), [Slides](/slides/04a-Distributions.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/3HwZU52k-34), [Slides](/slides/04b-Distributions.html)</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,6 +737,9 @@
       </c>
       <c r="E7" t="s">
         <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE66AA1-D4D6-734B-AAEB-3A91FBC6CC0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8D5456-C868-9743-AFA0-AF5616788FC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/3HwZU52k-34), [Slides](/slides/04b-Distributions.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/yhvYhMtr7yQ), [Slides](/slides/05-Foundation_for_Inference.html)</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,6 +760,9 @@
       </c>
       <c r="E8" t="s">
         <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8D5456-C868-9743-AFA0-AF5616788FC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316676A7-93F3-1440-86C8-345B872AEEC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="8780" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="15120" yWindow="8160" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/yhvYhMtr7yQ), [Slides](/slides/05-Foundation_for_Inference.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/RVsfo-DEGLQ), [Slides](/slides/06-Inference_for_Categorical_Data.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/tA7XN7CW8K0), [Slides](/slides/07-Inference_for_Numerical_Data.html)</t>
   </si>
 </sst>
 </file>
@@ -593,7 +599,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,6 +787,9 @@
       <c r="E9" t="s">
         <v>36</v>
       </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -797,6 +806,9 @@
       </c>
       <c r="E10" t="s">
         <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316676A7-93F3-1440-86C8-345B872AEEC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE4B005-5930-9742-942B-BED16DF17FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="8160" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/tA7XN7CW8K0), [Slides](/slides/07-Inference_for_Numerical_Data.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/EUXDKpVLIY0), [Slides](/slides/08-Linear_Regression.html)</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,6 +837,9 @@
       </c>
       <c r="E12" t="s">
         <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE4B005-5930-9742-942B-BED16DF17FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093BDDF2-F57E-9A4A-A165-4AD59566CFEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="8160" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/EUXDKpVLIY0), [Slides](/slides/08-Linear_Regression.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/lo1ZEJIvOM4), [Slides](/slides/08-Linear_Regression2.html)</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,6 +860,9 @@
       </c>
       <c r="E13" t="s">
         <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093BDDF2-F57E-9A4A-A165-4AD59566CFEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA71021-AE7D-3B40-B7F0-FE4108964C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="8160" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="4300" yWindow="9380" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -227,10 +227,19 @@
     <t>[Video](https://youtu.be/tA7XN7CW8K0), [Slides](/slides/07-Inference_for_Numerical_Data.html)</t>
   </si>
   <si>
-    <t>[Video](https://youtu.be/EUXDKpVLIY0), [Slides](/slides/08-Linear_Regression.html)</t>
-  </si>
-  <si>
-    <t>[Video](https://youtu.be/lo1ZEJIvOM4), [Slides](/slides/08-Linear_Regression2.html)</t>
+    <t>[Recording and slides](/blog/2021-04-21-multiple_linear_regression/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/2021-04-14-linear_regression2/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/2021-04-07-linear_regression/)</t>
+  </si>
+  <si>
+    <t>1:30 pm</t>
+  </si>
+  <si>
+    <t>Intro to Shiny</t>
   </si>
 </sst>
 </file>
@@ -602,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,7 +851,7 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -881,27 +890,27 @@
       <c r="E14" t="s">
         <v>36</v>
       </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44321</v>
+        <v>44314</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -910,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -918,18 +927,35 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>44328</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA71021-AE7D-3B40-B7F0-FE4108964C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AE1CD7-77DF-9648-A5BA-2283C50A0D52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="9380" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>Intro to Shiny</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/2021-04-28-logistic_regression/</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/2021-04-27-intro_to_shiny/)</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,6 +913,9 @@
       <c r="D15" t="s">
         <v>70</v>
       </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -923,6 +932,9 @@
       </c>
       <c r="E16" t="s">
         <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AE1CD7-77DF-9648-A5BA-2283C50A0D52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C365AF-5BF5-7E44-9B31-2143EC1E1F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="9380" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -242,10 +242,10 @@
     <t>Intro to Shiny</t>
   </si>
   <si>
-    <t>[Recording and slides](/blog/2021-04-28-logistic_regression/</t>
-  </si>
-  <si>
     <t>[Recording and slides](/blog/2021-04-27-intro_to_shiny/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/2021-04-28-logistic_regression/)</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,7 +914,7 @@
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -934,7 +934,7 @@
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C365AF-5BF5-7E44-9B31-2143EC1E1F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE229861-85FA-5045-B916-4E0B8C921B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="9380" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/2021-04-28-logistic_regression/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/2021-05-05-bayesian_analysis/)</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,7 +940,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44321</v>
       </c>
@@ -953,8 +956,11 @@
       <c r="E17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44328</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE229861-85FA-5045-B916-4E0B8C921B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB242DC-D07A-6A4E-A052-C21EE35D094E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="9380" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="16100" yWindow="8160" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/2021-05-05-bayesian_analysis/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/2021-05-12-final-meetup/)</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,6 +978,9 @@
       </c>
       <c r="E18" t="s">
         <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB242DC-D07A-6A4E-A052-C21EE35D094E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D090D13-6FA5-7046-BF6B-9DC13EC5B21F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16100" yWindow="8160" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -251,7 +251,7 @@
     <t>[Recording and slides](/blog/2021-05-05-bayesian_analysis/)</t>
   </si>
   <si>
-    <t>[Recording and slides](/blog/2021-05-12-final-meetup/)</t>
+    <t>[Recording and slides](/blog/2021-05-12-final_meetup/)</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
